--- a/kaiseki/kakudo.xlsx
+++ b/kaiseki/kakudo.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{21F54E88-6C31-419B-80DE-D1880D363D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34E38CC-4DAF-4BD4-95C3-2D89537BFA7B}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -644,9 +644,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3633,7 +3632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R29" sqref="R29:V34"/>
     </sheetView>
   </sheetViews>
@@ -8521,7 +8520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ACFD6-8D8C-4089-8796-235E5F3EC5DF}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Z36" sqref="Z36:AB49"/>
     </sheetView>
   </sheetViews>
@@ -11804,18 +11803,18 @@
       <c r="U38" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB38" s="16" t="s">
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF38" s="16" t="s">
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF38" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11884,22 +11883,22 @@
         <f>CORREL(B7:O16,B76:O85)</f>
         <v>-0.28469635824816264</v>
       </c>
-      <c r="Z39" s="14" t="s">
+      <c r="Z39" t="s">
         <v>92</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AA39">
         <v>0.97471206063165527</v>
       </c>
-      <c r="AB39" s="14">
+      <c r="AB39">
         <v>1.1736219244492587</v>
       </c>
-      <c r="AD39" s="14" t="s">
+      <c r="AD39" t="s">
         <v>92</v>
       </c>
-      <c r="AE39" s="14">
+      <c r="AE39">
         <v>1.1703070669774631</v>
       </c>
-      <c r="AF39" s="14">
+      <c r="AF39">
         <v>1.4690552692269967</v>
       </c>
     </row>
@@ -11968,22 +11967,22 @@
         <f>CORREL(B22:O31,B91:O100)</f>
         <v>-1.9372450453968033E-2</v>
       </c>
-      <c r="Z40" s="14" t="s">
+      <c r="Z40" t="s">
         <v>93</v>
       </c>
-      <c r="AA40" s="14">
+      <c r="AA40">
         <v>0.15814303942997956</v>
       </c>
-      <c r="AB40" s="14">
+      <c r="AB40">
         <v>0.10202715281368553</v>
       </c>
-      <c r="AD40" s="14" t="s">
+      <c r="AD40" t="s">
         <v>93</v>
       </c>
-      <c r="AE40" s="14">
+      <c r="AE40">
         <v>0.56438626290074378</v>
       </c>
-      <c r="AF40" s="14">
+      <c r="AF40">
         <v>0.24800053525027849</v>
       </c>
     </row>
@@ -12033,22 +12032,22 @@
       <c r="O41" s="3">
         <v>70</v>
       </c>
-      <c r="Z41" s="14" t="s">
+      <c r="Z41" t="s">
         <v>94</v>
       </c>
-      <c r="AA41" s="14">
-        <v>70</v>
-      </c>
-      <c r="AB41" s="14">
+      <c r="AA41">
+        <v>70</v>
+      </c>
+      <c r="AB41">
         <v>140</v>
       </c>
-      <c r="AD41" s="14" t="s">
+      <c r="AD41" t="s">
         <v>94</v>
       </c>
-      <c r="AE41" s="14">
-        <v>70</v>
-      </c>
-      <c r="AF41" s="14">
+      <c r="AE41">
+        <v>70</v>
+      </c>
+      <c r="AF41">
         <v>140</v>
       </c>
     </row>
@@ -12110,20 +12109,18 @@
       <c r="W42" t="s">
         <v>83</v>
       </c>
-      <c r="Z42" s="14" t="s">
+      <c r="Z42" t="s">
         <v>95</v>
       </c>
-      <c r="AA42" s="14">
+      <c r="AA42">
         <v>0.12064251904697539</v>
       </c>
-      <c r="AB42" s="14"/>
-      <c r="AD42" s="14" t="s">
+      <c r="AD42" t="s">
         <v>95</v>
       </c>
-      <c r="AE42" s="14">
+      <c r="AE42">
         <v>0.35295541605740399</v>
       </c>
-      <c r="AF42" s="14"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -12195,20 +12192,18 @@
       <c r="X43" t="s">
         <v>71</v>
       </c>
-      <c r="Z43" s="14" t="s">
+      <c r="Z43" t="s">
         <v>96</v>
       </c>
-      <c r="AA43" s="14">
+      <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AB43" s="14"/>
-      <c r="AD43" s="14" t="s">
+      <c r="AD43" t="s">
         <v>96</v>
       </c>
-      <c r="AE43" s="14">
+      <c r="AE43">
         <v>0</v>
       </c>
-      <c r="AF43" s="14"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -12288,20 +12283,18 @@
         <f>TDIST(ABS(W44),138,2)</f>
         <v>1.6129081532651016E-22</v>
       </c>
-      <c r="Z44" s="14" t="s">
+      <c r="Z44" t="s">
         <v>97</v>
       </c>
-      <c r="AA44" s="14">
+      <c r="AA44">
         <v>208</v>
       </c>
-      <c r="AB44" s="14"/>
-      <c r="AD44" s="14" t="s">
+      <c r="AD44" t="s">
         <v>97</v>
       </c>
-      <c r="AE44" s="14">
+      <c r="AE44">
         <v>208</v>
       </c>
-      <c r="AF44" s="14"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -12361,20 +12354,18 @@
       <c r="W45" t="s">
         <v>87</v>
       </c>
-      <c r="Z45" s="14" t="s">
+      <c r="Z45" t="s">
         <v>98</v>
       </c>
-      <c r="AA45" s="14">
+      <c r="AA45">
         <v>-3.9120960776009848</v>
       </c>
-      <c r="AB45" s="14"/>
-      <c r="AD45" s="14" t="s">
+      <c r="AD45" t="s">
         <v>98</v>
       </c>
-      <c r="AE45" s="14">
+      <c r="AE45">
         <v>-3.4351742037095612</v>
       </c>
-      <c r="AF45" s="14"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -12446,20 +12437,18 @@
       <c r="X46" t="s">
         <v>71</v>
       </c>
-      <c r="Z46" s="14" t="s">
+      <c r="Z46" t="s">
         <v>99</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AA46">
         <v>6.1949956688989801E-5</v>
       </c>
-      <c r="AB46" s="14"/>
-      <c r="AD46" s="14" t="s">
+      <c r="AD46" t="s">
         <v>99</v>
       </c>
-      <c r="AE46" s="14">
+      <c r="AE46">
         <v>3.5739296423265325E-4</v>
       </c>
-      <c r="AF46" s="14"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -12539,20 +12528,18 @@
         <f>TDIST(ABS(W47),138,2)</f>
         <v>0.8202805141997076</v>
       </c>
-      <c r="Z47" s="14" t="s">
+      <c r="Z47" t="s">
         <v>100</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AA47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AB47" s="14"/>
-      <c r="AD47" s="14" t="s">
+      <c r="AD47" t="s">
         <v>100</v>
       </c>
-      <c r="AE47" s="14">
+      <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AF47" s="14"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -12600,20 +12587,18 @@
       <c r="O48" s="3">
         <v>70</v>
       </c>
-      <c r="Z48" s="14" t="s">
+      <c r="Z48" t="s">
         <v>101</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA48">
         <v>1.238999133779796E-4</v>
       </c>
-      <c r="AB48" s="14"/>
-      <c r="AD48" s="14" t="s">
+      <c r="AD48" t="s">
         <v>101</v>
       </c>
-      <c r="AE48" s="14">
+      <c r="AE48">
         <v>7.1478592846530649E-4</v>
       </c>
-      <c r="AF48" s="14"/>
     </row>
     <row r="49" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -12661,20 +12646,20 @@
       <c r="O49" s="3">
         <v>80</v>
       </c>
-      <c r="Z49" s="15" t="s">
+      <c r="Z49" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AA49" s="15">
+      <c r="AA49" s="14">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AB49" s="15"/>
-      <c r="AD49" s="15" t="s">
+      <c r="AB49" s="14"/>
+      <c r="AD49" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AE49" s="15">
+      <c r="AE49" s="14">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AF49" s="15"/>
+      <c r="AF49" s="14"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">

--- a/kaiseki/kakudo.xlsx
+++ b/kaiseki/kakudo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{21F54E88-6C31-419B-80DE-D1880D363D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34E38CC-4DAF-4BD4-95C3-2D89537BFA7B}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{21F54E88-6C31-419B-80DE-D1880D363D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A2579B-28E1-4120-89C0-CDAFC98952C4}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="1185" windowWidth="20985" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
   <si>
     <t>imahashi</t>
   </si>
@@ -860,8 +860,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2666526176624972</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1365993245780497E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2666526176624972</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1365993245780497E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -946,8 +982,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.18461802008612918</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.35572887794840941</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.18238933868251231</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.389206016827918</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.18461802008612918</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.35572887794840941</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.18238933868251231</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.389206016827918</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1035,8 +1113,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.36906329157791934</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30981642975946599</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3555225714027605</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.3310009480053735</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.36906329157791934</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30981642975946599</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3555225714027605</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.3310009480053735</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1124,8 +1244,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.42040221988023585</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.37920542410795793</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42603823871455881</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.33530430635180114</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.42040221988023585</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.37920542410795793</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42603823871455881</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.33530430635180114</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1255,6 +1417,7 @@
         <c:axId val="1755925263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1332,7 +1495,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1423,12 +1586,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1498,8 +1656,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>0.52511804476559432</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.68883604405015941</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>0.52511804476559432</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.68883604405015941</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1584,8 +1778,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.9003163679362749</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.38453167240367631</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.68714187775614222</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.37500483164118303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.9003163679362749</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.38453167240367631</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.68714187775614222</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.37500483164118303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1673,8 +1909,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.53920450624001126</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.4612129944543284</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.5155154322300477</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.36654926838623003</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.53920450624001126</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.4612129944543284</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.5155154322300477</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.36654926838623003</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1762,8 +2040,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.56044718507481106</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.55595683189725265</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.55144624277981547</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.61835008566285565</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.56044718507481106</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.55595683189725265</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.55144624277981547</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.61835008566285565</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1851,8 +2171,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.84952389011641416</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.69494989350337433</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.94094419348302094</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.71206228502941638</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.84952389011641416</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.69494989350337433</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.94094419348302094</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.71206228502941638</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2059,7 +2421,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2150,12 +2512,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3268,14 +3625,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>517922</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>140493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>255985</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>26193</xdr:rowOff>
     </xdr:to>
@@ -3304,16 +3661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>517921</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>553639</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>255983</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>291701</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3630,10 +3987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29:V34"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4387,7 +4744,7 @@
         <v>0.85966429683351353</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4434,7 +4791,7 @@
         <v>3.1314919870044791</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4487,7 +4844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4546,7 +4903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4598,8 +4955,11 @@
       <c r="R20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4663,8 +5023,23 @@
         <f>AVERAGE(B7,K7)</f>
         <v>1.3809728581772287</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="13">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>0.2666526176624972</v>
+      </c>
+      <c r="AB21" s="13">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>4.1365993245780497E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4732,8 +5107,27 @@
         <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
         <v>1.2654056492405064</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="13">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>0.18461802008612918</v>
+      </c>
+      <c r="Z22" s="13">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>0.35572887794840941</v>
+      </c>
+      <c r="AA22" s="13">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>0.18238933868251231</v>
+      </c>
+      <c r="AB22" s="13">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>0.389206016827918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -4801,8 +5195,27 @@
         <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
         <v>1.130497490019283</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="13">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>0.36906329157791934</v>
+      </c>
+      <c r="Z23" s="13">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>0.30981642975946599</v>
+      </c>
+      <c r="AA23" s="13">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>0.3555225714027605</v>
+      </c>
+      <c r="AB23" s="13">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>0.3310009480053735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4870,8 +5283,27 @@
         <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
         <v>1.0544867437801435</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="13">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>0.42040221988023585</v>
+      </c>
+      <c r="Z24" s="13">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>0.37920542410795793</v>
+      </c>
+      <c r="AA24" s="13">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>0.42603823871455881</v>
+      </c>
+      <c r="AB24" s="13">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>0.33530430635180114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -4919,7 +5351,7 @@
       </c>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4966,7 +5398,7 @@
         <v>0.41942866460515349</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5013,7 +5445,7 @@
         <v>2.436686019749863</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5063,7 +5495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5122,7 +5554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5186,8 +5618,23 @@
         <f>AVERAGE(B30,K30,)</f>
         <v>0.97278149088562671</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="13">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>0.52511804476559432</v>
+      </c>
+      <c r="AA30" s="13">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="13">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>0.68883604405015941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5255,8 +5702,27 @@
         <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
         <v>1.3864852950262225</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="13">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>0.9003163679362749</v>
+      </c>
+      <c r="Z31" s="13">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>0.38453167240367631</v>
+      </c>
+      <c r="AA31" s="13">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>0.68714187775614222</v>
+      </c>
+      <c r="AB31" s="13">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>0.37500483164118303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>56</v>
       </c>
@@ -5279,8 +5745,27 @@
         <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
         <v>1.4773842401154373</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="13">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>0.53920450624001126</v>
+      </c>
+      <c r="Z32" s="13">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>0.4612129944543284</v>
+      </c>
+      <c r="AA32" s="13">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>0.5155154322300477</v>
+      </c>
+      <c r="AB32" s="13">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>0.36654926838623003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5306,8 +5791,27 @@
         <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
         <v>1.4287252388108849</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y33" s="13">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>0.56044718507481106</v>
+      </c>
+      <c r="Z33" s="13">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>0.55595683189725265</v>
+      </c>
+      <c r="AA33" s="13">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>0.55144624277981547</v>
+      </c>
+      <c r="AB33" s="13">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>0.61835008566285565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5372,8 +5876,27 @@
         <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
         <v>1.3745915810332963</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="13">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>0.84952389011641416</v>
+      </c>
+      <c r="Z34" s="13">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>0.69494989350337433</v>
+      </c>
+      <c r="AA34" s="13">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>0.94094419348302094</v>
+      </c>
+      <c r="AB34" s="13">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>0.71206228502941638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5420,7 +5943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5467,7 +5990,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5514,7 +6037,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5561,7 +6084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5608,7 +6131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5655,7 +6178,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -5702,7 +6225,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5749,7 +6272,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -5796,7 +6319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5843,7 +6366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5890,7 +6413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -5937,7 +6460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -5984,7 +6507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -8520,8 +9043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ACFD6-8D8C-4089-8796-235E5F3EC5DF}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36:AB49"/>
+    <sheetView topLeftCell="Q22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W35" activeCellId="1" sqref="U35 W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12260,12 +12783,12 @@
         <v>0.92067003419854032</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>-3.609894756411677</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>4.2760096406955583E-4</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -12276,12 +12799,12 @@
         <v>0.85439505494365875</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>-11.74734012447073</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>-3.4887993314376247</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>6.5152932259141677E-4</v>
       </c>
       <c r="Z44" t="s">
         <v>97</v>

--- a/kaiseki/kakudo.xlsx
+++ b/kaiseki/kakudo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{21F54E88-6C31-419B-80DE-D1880D363D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A2579B-28E1-4120-89C0-CDAFC98952C4}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{71FCD244-418B-4E95-8475-6A6A892E6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97E1F34-EC55-458B-8363-CBAACB04038E}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="1185" windowWidth="20985" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="2280" windowWidth="19740" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="111">
   <si>
     <t>imahashi</t>
   </si>
@@ -449,6 +449,45 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>通常：事前</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -766,7 +805,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -805,13 +844,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -843,7 +882,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -918,13 +957,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -965,7 +1004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1046,13 +1085,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1096,7 +1135,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,13 +1216,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1227,7 +1266,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1308,13 +1347,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1530,45 +1569,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1577,6 +1577,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1639,7 +1670,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1714,7 +1745,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
@@ -1761,7 +1792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1842,7 +1873,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
@@ -1892,7 +1923,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1973,7 +2004,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
@@ -2023,7 +2054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2104,7 +2135,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
@@ -2154,7 +2185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2235,7 +2266,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
@@ -2456,45 +2487,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2503,6 +2495,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3625,16 +3648,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>41672</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>140493</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>148829</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>470297</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>26193</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>577454</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3661,16 +3684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>553639</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>164306</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>363139</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>291701</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>73818</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101202</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3990,7 +4013,7 @@
   <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20:AB34"/>
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4891,13 +4914,13 @@
         <v>0.46364760900080271</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
         <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V19" t="s">
         <v>53</v>
@@ -4953,7 +4976,7 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="X20" t="s">
         <v>60</v>
@@ -5009,7 +5032,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S21" s="13">
         <f>AVERAGE(D6)</f>
@@ -5089,7 +5112,7 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S22" s="13">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5177,7 +5200,7 @@
         <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S23" s="13">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5265,7 +5288,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S24" s="13">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5542,7 +5565,7 @@
         <v>0.92246441026952575</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
         <v>51</v>
@@ -5604,7 +5627,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="T30" s="13">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5684,7 +5707,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S31" s="13">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -5727,7 +5750,7 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S32" s="13">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -5773,7 +5796,7 @@
         <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S33" s="13">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -5858,7 +5881,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S34" s="13">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -9043,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ACFD6-8D8C-4089-8796-235E5F3EC5DF}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="Q22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W35" activeCellId="1" sqref="U35 W35"/>
+    <sheetView topLeftCell="Z28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35:AO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12012,7 +12035,7 @@
         <v>1.6340445115603962E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -12029,7 +12052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -12093,7 +12116,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -12161,8 +12184,14 @@
       <c r="AD35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -12218,7 +12247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12267,8 +12296,22 @@
       <c r="Q37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO37" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12340,8 +12383,26 @@
       <c r="AF38" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ38">
+        <v>0.97471206063165527</v>
+      </c>
+      <c r="AK38">
+        <v>1.1736219244492587</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN38">
+        <v>1.1703070669774631</v>
+      </c>
+      <c r="AO38">
+        <v>1.4690552692269967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12424,8 +12485,26 @@
       <c r="AF39">
         <v>1.4690552692269967</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ39">
+        <v>0.15814303942997956</v>
+      </c>
+      <c r="AK39">
+        <v>0.10202715281368553</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN39">
+        <v>0.56438626290074378</v>
+      </c>
+      <c r="AO39">
+        <v>0.24800053525027849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12508,8 +12587,26 @@
       <c r="AF40">
         <v>0.24800053525027849</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ40">
+        <v>70</v>
+      </c>
+      <c r="AK40">
+        <v>140</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN40">
+        <v>70</v>
+      </c>
+      <c r="AO40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12573,8 +12670,20 @@
       <c r="AF41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12644,8 +12753,20 @@
       <c r="AE42">
         <v>0.35295541605740399</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ42">
+        <v>115</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -12727,8 +12848,20 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ43">
+        <v>-3.6388951061485124</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN43">
+        <v>-3.0125768783867306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12818,8 +12951,20 @@
       <c r="AE44">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ44">
+        <v>2.0575116903398359E-4</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN44">
+        <v>1.640602710097018E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -12889,8 +13034,20 @@
       <c r="AE45">
         <v>-3.4351742037095612</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ45">
+        <v>1.658211830031149</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN45">
+        <v>1.6602343260853425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -12972,8 +13129,20 @@
       <c r="AE46">
         <v>3.5739296423265325E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ46">
+        <v>4.1150233806796718E-4</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN46">
+        <v>3.281205420194036E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -13063,8 +13232,22 @@
       <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AI47" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ47" s="14">
+        <v>1.9808075411039101</v>
+      </c>
+      <c r="AK47" s="14"/>
+      <c r="AM47" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN47" s="14">
+        <v>1.9839715185235556</v>
+      </c>
+      <c r="AO47" s="14"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
